--- a/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
+++ b/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\scripts_subir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\Counter_Selection_LAP_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5993BE0C-A916-4883-9FE0-B82F66370386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CF5F3-5025-4F90-8D92-B92E1EC21694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -230,88 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -744,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F02ED8E-B8A3-4C59-B0F6-7E9F2AB4C774}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6F14E-D95A-4DC0-98A4-115625F93A95}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
+++ b/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Downloads\Counter_Selection_LAP_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CF5F3-5025-4F90-8D92-B92E1EC21694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285F67D-6AA2-4DD4-896C-41E595EAE9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -53,15 +53,9 @@
     <t>p300_single_gen2</t>
   </si>
   <si>
-    <t>vwrblueprintdepth105_96_wellplate_390ul</t>
-  </si>
-  <si>
     <t>opentrons_15_tuberack_falcon_15ml_conical</t>
   </si>
   <si>
-    <t>Variables Names</t>
-  </si>
-  <si>
     <t>Plate 1</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>25, 75</t>
+  </si>
+  <si>
+    <t>Variable Names</t>
+  </si>
+  <si>
+    <t>nest_96_wellplate_200ul_flat</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86E2C956-527A-41CF-BC2E-3B5B3C9EAF9E}" name="Tabla1" displayName="Tabla1" ref="A1:B7" totalsRowShown="0">
   <autoFilter ref="A1:B7" xr:uid="{86E2C956-527A-41CF-BC2E-3B5B3C9EAF9E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B8EA145-01B3-4BC1-A47A-8EBB9AB56806}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{5B8EA145-01B3-4BC1-A47A-8EBB9AB56806}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{AE57D5C2-278F-4C33-975C-F4554BE3FCA8}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -258,7 +258,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{446F32ED-BC0E-45F7-A06A-9194A98F9DF0}" name="Tabla3" displayName="Tabla3" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{446F32ED-BC0E-45F7-A06A-9194A98F9DF0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{45E98A57-4382-40F8-A5F3-8AB02AB26E61}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{45E98A57-4382-40F8-A5F3-8AB02AB26E61}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{D33D2881-5113-4EBF-B805-C3A094270778}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -269,7 +269,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1DA7272-C605-475E-B93B-0C64E4016F57}" name="Tabla2" displayName="Tabla2" ref="A1:L8" totalsRowShown="0">
   <autoFilter ref="A1:L8" xr:uid="{B1DA7272-C605-475E-B93B-0C64E4016F57}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{519108CB-8243-475D-83DE-AEBE3C795659}" name="Variables Names"/>
+    <tableColumn id="1" xr3:uid="{519108CB-8243-475D-83DE-AEBE3C795659}" name="Variable Names"/>
     <tableColumn id="2" xr3:uid="{C8BB7E4D-7723-450D-A853-473071FB562B}" name="Plate 1"/>
     <tableColumn id="3" xr3:uid="{C3E361E5-CE7B-4C61-9395-66584567C6E5}" name="Plate 2"/>
     <tableColumn id="4" xr3:uid="{9AB54AA1-4D9B-4661-9E4E-16B913F985B2}" name="Plate 3"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371B99-EC46-413E-A9F1-D2C09CA04AC1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -605,39 +605,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -663,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F02ED8E-B8A3-4C59-B0F6-7E9F2AB4C774}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -675,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -683,12 +681,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -696,37 +694,37 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -742,9 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6F14E-D95A-4DC0-98A4-115625F93A95}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -755,45 +751,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -804,46 +800,46 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -851,15 +847,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>25</v>

--- a/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
+++ b/LAPEntries/LAP-ColonyCounterSelection-OT2-1.0.0/VariablesCounterSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana_CBGP\Documentos\app_\archivos_en_produccion\scripts_conNuevasFunciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285F67D-6AA2-4DD4-896C-41E595EAE9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A0361C-59A2-4AF0-92F9-A763539FCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
+    <workbookView xWindow="348" yWindow="648" windowWidth="16572" windowHeight="11340" activeTab="2" xr2:uid="{D5639947-8C77-4AC3-8B0C-59BB8C968449}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralVariables" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371B99-EC46-413E-A9F1-D2C09CA04AC1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6F14E-D95A-4DC0-98A4-115625F93A95}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
